--- a/data/trans_camb/P18_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_4_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-25,86</t>
+          <t>-25,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,15</t>
+          <t>-10,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-21,26</t>
+          <t>-20,92</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>63,71</t>
+          <t>-18,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-27,52</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-20,75</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-22,49</t>
+          <t>-28,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,19</t>
+          <t>-21,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-26,63</t>
+          <t>-23,36</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-16,33</t>
+          <t>-28,86</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-21,73</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>62,03</t>
+          <t>-1,83</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-26,88</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-15,8</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-22,01</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-23,65</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-0,96</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-3,28</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-35,1; -19,02</t>
+          <t>-33,82; -19,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,29; -2,56</t>
+          <t>-19,95; -1,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,83; -12,62</t>
+          <t>-29,81; -12,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>53,34; 71,99</t>
+          <t>-27,75; -8,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,93; -20,28</t>
+          <t>-12,06; 2,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-29,99; -12,08</t>
+          <t>-11,98; 2,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,31; -11,26</t>
+          <t>-36,06; -20,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,55; 67,78</t>
+          <t>-29,63; -13,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-32,33; -20,94</t>
+          <t>-32,24; -13,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -10,2</t>
+          <t>-36,76; -21,62</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-28,38; -14,27</t>
+          <t>-1,78; 8,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>55,26; 68,37</t>
+          <t>-8,13; 4,73</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-32,13; -21,17</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-22,99; -8,66</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-28,07; -15,61</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-30,31; -17,55</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 3,39</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-7,91; 1,28</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-94,47%</t>
+          <t>-94,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-44,39%</t>
+          <t>-38,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-77,65%</t>
+          <t>-76,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>232,75%</t>
+          <t>-67,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-85,61%</t>
+          <t>-50,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-64,55%</t>
+          <t>-51,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-69,96%</t>
+          <t>-87,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>187,24%</t>
+          <t>-66,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-89,81%</t>
+          <t>-72,67%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-55,07%</t>
+          <t>-89,76%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-73,3%</t>
+          <t>77,44%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>209,2%</t>
+          <t>-23,85%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-90,66%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-53,28%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-74,24%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-79,76%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-16,04%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-39,44%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -78,67</t>
+          <t>-100,0; -72,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,95; -9,24</t>
+          <t>-63,22; -1,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,61; -53,08</t>
+          <t>-90,89; -51,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>149,03; 340,68</t>
+          <t>-85,65; -31,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-94,84; -70,04</t>
+          <t>-90,06; 107,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-80,22; -43,22</t>
+          <t>-89,05; 86,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-85,22; -36,83</t>
+          <t>-95,45; -71,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>130,24; 263,61</t>
+          <t>-79,08; -48,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-95,58; -80,19</t>
+          <t>-86,6; -46,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-69,29; -37,79</t>
+          <t>-96,45; -75,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-85,18; -52,54</t>
+          <t>-45,18; 807,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>158,78; 276,93</t>
+          <t>-70,54; 118,36</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-95,59; -81,8</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-68,19; -33,52</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-85,11; -58,78</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-88,89; -63,25</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-61,32; 97,94</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-71,2; 25,55</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-18,14</t>
+          <t>-17,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,65</t>
+          <t>-11,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-19,51</t>
+          <t>-20,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>65,88</t>
+          <t>-22,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,92</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-10,55</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-17,77</t>
+          <t>-18,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>67,33</t>
+          <t>-10,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-18,04</t>
+          <t>-17,5</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-11,13</t>
+          <t>-20,76</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-18,7</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>66,59</t>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-17,78</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-10,86</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-18,89</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-21,52</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,21; -8,06</t>
+          <t>-27,89; -7,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 0,66</t>
+          <t>-21,95; -0,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,23; -10,82</t>
+          <t>-29,75; -12,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>55,29; 74,45</t>
+          <t>-32,53; -14,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,01; -9,64</t>
+          <t>-1,79; 9,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,11; -2,96</t>
+          <t>-7,76; 6,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,69; -10,83</t>
+          <t>-25,87; -10,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,46; 73,88</t>
+          <t>-19,03; -2,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-24,66; -12,06</t>
+          <t>-24,8; -10,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-17,43; -3,99</t>
+          <t>-27,93; -14,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-24,51; -13,27</t>
+          <t>-4,57; 5,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>59,84; 72,2</t>
+          <t>-5,03; 5,26</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-24,47; -11,73</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-17,06; -3,41</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-25,03; -13,33</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-27,65; -16,02</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 5,95</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 3,75</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-68,91%</t>
+          <t>-66,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-44,24%</t>
+          <t>-42,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-74,11%</t>
+          <t>-76,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>250,24%</t>
+          <t>-84,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-67,39%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-39,68%</t>
+          <t>-1,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-66,82%</t>
+          <t>-68,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>253,24%</t>
+          <t>-39,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-68,18%</t>
+          <t>-65,83%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-42,06%</t>
+          <t>-78,07%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-70,68%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>251,72%</t>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-67,23%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-41,07%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-71,43%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-81,35%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>39,24%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-1,24%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-85,26; -32,04</t>
+          <t>-84,45; -27,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-65,31; 9,03</t>
+          <t>-68,27; 5,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-86,44; -51,14</t>
+          <t>-88,4; -56,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>155,27; 387,41</t>
+          <t>-94,3; -65,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-82,61; -44,08</t>
+          <t>-41,95; 406,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,39; -12,21</t>
+          <t>-64,99; 168,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-81,7; -50,26</t>
+          <t>-82,65; -45,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>182,49; 359,9</t>
+          <t>-59,81; -11,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-79,67; -50,59</t>
+          <t>-80,05; -45,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-57,33; -16,35</t>
+          <t>-89,55; -62,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-80,1; -56,73</t>
+          <t>-56,91; 168,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>185,44; 324,85</t>
+          <t>-59,88; 154,86</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-79,4; -46,24</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-56,83; -11,55</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-80,74; -57,76</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-89,68; -68,49</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-25,47; 180,14</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-47,5; 72,44</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-17,68</t>
+          <t>-17,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-17,03</t>
+          <t>-17,49</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-17,73</t>
+          <t>-17,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66,42</t>
+          <t>-16,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-12,8</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,73</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-9,3</t>
+          <t>-12,79</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>70,23</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-15,19</t>
+          <t>-9,19</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-12,79</t>
+          <t>-12,51</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-13,43</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>68,46</t>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-14,9</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-12,94</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-13,28</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-14,6</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-2,5</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-25,53; -8,36</t>
+          <t>-24,59; -8,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,68; -9,41</t>
+          <t>-25,58; -9,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-24,82; -9,8</t>
+          <t>-25,02; -9,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,58; 72,09</t>
+          <t>-25,05; -8,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,87; -7,72</t>
+          <t>-14,0; 0,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,66; -3,25</t>
+          <t>-6,18; 3,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,86; -4,29</t>
+          <t>-18,57; -7,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>63,61; 75,39</t>
+          <t>-14,18; -3,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-20,08; -10,44</t>
+          <t>-14,5; -3,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-17,44; -8,02</t>
+          <t>-18,09; -7,06</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-18,23; -8,67</t>
+          <t>-4,04; 5,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>63,51; 72,98</t>
+          <t>-6,23; 4,42</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-19,43; -9,23</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-18,16; -8,14</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-18,18; -8,99</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-19,5; -9,49</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; 1,25</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; 2,46</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-65,57%</t>
+          <t>-63,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-63,17%</t>
+          <t>-64,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-65,78%</t>
+          <t>-65,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>246,38%</t>
+          <t>-62,12%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-62,25%</t>
+          <t>-52,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-42,42%</t>
+          <t>-27,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-45,2%</t>
+          <t>-62,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>341,47%</t>
+          <t>-41,75%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-64,08%</t>
+          <t>-44,71%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-53,98%</t>
+          <t>-60,85%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-56,66%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>288,85%</t>
+          <t>-6,61%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-62,85%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-54,61%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-56,03%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-61,62%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-27,45%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>-15,78%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-81,66; -28,58</t>
+          <t>-80,16; -27,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,3; -34,69</t>
+          <t>-79,11; -38,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,62; -37,92</t>
+          <t>-78,49; -34,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>172,08; 325,3</t>
+          <t>-78,47; -27,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-77,19; -41,87</t>
+          <t>-85,65; 17,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,91; -17,94</t>
+          <t>-74,15; 101,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-63,08; -23,4</t>
+          <t>-76,32; -39,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>260,01; 452,2</t>
+          <t>-59,33; -12,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,14; -44,99</t>
+          <t>-61,91; -20,41</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-65,26; -35,95</t>
+          <t>-75,94; -37,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-67,86; -38,59</t>
+          <t>-41,81; 104,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>233,05; 361,98</t>
+          <t>-51,54; 68,86</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-74,21; -41,71</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-66,67; -38,49</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-67,73; -39,42</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-74,01; -43,07</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-60,14; 23,51</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-51,62; 38,97</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-20,89</t>
+          <t>-20,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-16,98</t>
+          <t>-16,99</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-19,75</t>
+          <t>-19,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>61,1</t>
+          <t>-21,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-17,85</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,67</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-17,16</t>
+          <t>-17,7</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>55,55</t>
+          <t>-11,53</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-19,31</t>
+          <t>-16,99</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-14,28</t>
+          <t>-16,83</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-18,44</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>58,47</t>
+          <t>-6,19</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-19,19</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-14,22</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-18,26</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-19,0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-2,46</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-27,83; -14,95</t>
+          <t>-28,26; -14,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,94; -9,4</t>
+          <t>-25,09; -9,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,92; -13,45</t>
+          <t>-26,99; -13,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53,22; 67,91</t>
+          <t>-29,0; -15,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,69; -12,0</t>
+          <t>-0,6; 10,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,06; -5,34</t>
+          <t>-6,04; 6,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-22,99; -11,85</t>
+          <t>-23,5; -11,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>48,58; 62,73</t>
+          <t>-18,2; -5,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-23,67; -15,34</t>
+          <t>-22,83; -11,18</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-19,23; -8,97</t>
+          <t>-22,71; -10,39</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-22,57; -14,24</t>
+          <t>-7,79; 3,17</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>53,64; 63,2</t>
+          <t>-12,59; -0,21</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-23,96; -15,0</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-19,08; -9,35</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-22,77; -14,04</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-23,6; -14,34</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 5,12</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 1,92</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-73,74%</t>
+          <t>-73,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-59,93%</t>
+          <t>-59,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-69,72%</t>
+          <t>-69,04%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>215,72%</t>
+          <t>-74,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-61,86%</t>
+          <t>59,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-40,46%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-59,47%</t>
+          <t>-61,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>192,55%</t>
+          <t>-39,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-67,52%</t>
+          <t>-58,9%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-49,94%</t>
+          <t>-58,34%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-64,46%</t>
+          <t>-21,74%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>204,41%</t>
+          <t>-39,69%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-67,09%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-49,7%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-63,83%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-66,43%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>9,04%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-19,04%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-83,64; -58,18</t>
+          <t>-83,26; -56,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-74,89; -33,32</t>
+          <t>-74,29; -36,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-80,88; -55,72</t>
+          <t>-79,64; -54,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>160,83; 294,21</t>
+          <t>-86,0; -59,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,15; -46,9</t>
+          <t>-8,74; 216,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-56,41; -19,42</t>
+          <t>-45,05; 97,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-71,82; -45,51</t>
+          <t>-73,48; -44,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>143,95; 259,44</t>
+          <t>-55,95; -21,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-75,53; -57,92</t>
+          <t>-70,36; -43,14</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-61,36; -34,6</t>
+          <t>-71,53; -41,9</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-72,25; -53,29</t>
+          <t>-53,71; 36,27</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>165,75; 246,96</t>
+          <t>-67,25; 1,75</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-76,13; -56,98</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-60,54; -35,71</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-71,88; -53,27</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-75,29; -54,86</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-28,52; 64,21</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-45,32; 20,34</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-23,02</t>
+          <t>-23,03</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-18,26</t>
+          <t>-18,05</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-20,16</t>
+          <t>-19,77</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>60,12</t>
+          <t>-20,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-21,42</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-9,78</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>-21,37</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-9,84</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>-13,61</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>45,99</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-22,17</t>
-        </is>
-      </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>-14,01</t>
+          <t>-25,01</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>-16,77</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>52,83</t>
+          <t>-7,13</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-22,16</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-13,94</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-16,57</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-22,97</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>5,04</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-30,8; -15,71</t>
+          <t>-31,19; -16,17</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-26,04; -10,72</t>
+          <t>-26,16; -10,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-28,34; -13,1</t>
+          <t>-27,59; -12,6</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>50,65; 67,16</t>
+          <t>-29,53; -13,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-28,63; -14,09</t>
+          <t>-0,05; 13,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,3; -1,67</t>
+          <t>-0,67; 13,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-20,93; -5,57</t>
+          <t>-28,75; -13,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>37,59; 53,8</t>
+          <t>-17,8; -0,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-27,39; -16,88</t>
+          <t>-20,76; -5,13</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-18,93; -7,98</t>
+          <t>-32,46; -17,16</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-22,44; -11,24</t>
+          <t>-1,94; 10,72</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>47,12; 58,23</t>
+          <t>-14,0; 0,15</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-27,46; -16,54</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-19,69; -8,53</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-21,85; -11,28</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-28,29; -17,18</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>0,59; 9,73</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-5,76; 3,89</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-75,71%</t>
+          <t>-75,77%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-60,05%</t>
+          <t>-59,37%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-66,3%</t>
+          <t>-65,04%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>197,76%</t>
+          <t>-68,9%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-63,59%</t>
+          <t>59,08%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-29,02%</t>
+          <t>58,58%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-40,39%</t>
+          <t>-63,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>136,53%</t>
+          <t>-29,22%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-69,21%</t>
+          <t>-40,41%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>-43,73%</t>
+          <t>-74,23%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>-52,37%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>164,96%</t>
+          <t>-35,09%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-69,19%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-43,53%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-51,74%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-71,72%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>55,68%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-6,86%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-86,49; -59,6</t>
+          <t>-86,14; -60,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-72,77; -39,95</t>
+          <t>-72,67; -38,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-78,66; -49,16</t>
+          <t>-78,58; -47,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>135,53; 269,72</t>
+          <t>-81,15; -52,14</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-75,67; -46,12</t>
+          <t>-1,87; 197,38</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-49,18; -6,06</t>
+          <t>-11,37; 210,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-56,06; -18,63</t>
+          <t>-76,88; -45,19</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>98,8; 187,36</t>
+          <t>-46,95; -4,14</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-76,78; -56,83</t>
+          <t>-55,69; -17,84</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-55,4; -27,25</t>
+          <t>-85,6; -57,38</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-63,97; -39,31</t>
+          <t>-19,99; 195,89</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>128,07; 206,01</t>
+          <t>-59,84; 2,99</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-78,15; -57,45</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-55,38; -28,52</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-62,66; -38,38</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-80,42; -59,99</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 132,99</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-32,81; 30,02</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-24,12</t>
+          <t>-25,33</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-24,91</t>
+          <t>-25,17</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-28,05</t>
+          <t>-28,21</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>46,47</t>
+          <t>-34,51</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-26,68</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-22,18</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-26,93</t>
+          <t>-24,32</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>30,42</t>
+          <t>-22,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-25,57</t>
+          <t>-26,27</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>-23,45</t>
+          <t>-35,78</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>-27,45</t>
+          <t>4,56</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>37,25</t>
+          <t>-5,94</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-24,74</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>-23,5</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>-27,15</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>-35,29</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>5,21</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>-4,24</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-34,25; -12,69</t>
+          <t>-34,56; -14,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-33,75; -14,66</t>
+          <t>-34,86; -15,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-36,89; -19,73</t>
+          <t>-36,87; -19,98</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>35,87; 55,28</t>
+          <t>-42,74; -26,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-35,25; -18,64</t>
+          <t>-0,84; 13,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-30,63; -14,1</t>
+          <t>-10,54; 6,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-34,99; -17,91</t>
+          <t>-32,16; -15,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>19,66; 39,61</t>
+          <t>-30,94; -14,11</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-31,56; -18,72</t>
+          <t>-34,77; -17,53</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-28,96; -16,97</t>
+          <t>-43,55; -26,8</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-33,62; -21,56</t>
+          <t>-3,62; 13,53</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>29,66; 43,22</t>
+          <t>-16,6; 3,44</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-30,65; -17,28</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-29,93; -17,54</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-33,53; -20,29</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>-41,06; -29,34</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 11,23</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>-11,15; 2,53</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-60,1%</t>
+          <t>-63,1%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-62,07%</t>
+          <t>-62,7%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-69,88%</t>
+          <t>-70,29%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>115,79%</t>
+          <t>-85,97%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-56,24%</t>
+          <t>102,25%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-46,76%</t>
+          <t>-14,97%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-56,77%</t>
+          <t>-51,28%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>64,12%</t>
+          <t>-46,51%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-57,73%</t>
+          <t>-55,38%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>-52,95%</t>
+          <t>-75,44%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>-61,98%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>84,11%</t>
+          <t>-26,83%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-55,86%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>-53,06%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>-61,3%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>-79,68%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>57,92%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>-22,98%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-78,13; -34,6</t>
+          <t>-77,43; -38,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-75,7; -38,47</t>
+          <t>-76,16; -42,3</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-81,81; -54,82</t>
+          <t>-82,12; -54,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>80,0; 166,33</t>
+          <t>-94,33; -70,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-68,19; -41,46</t>
+          <t>-19,05; 448,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-59,52; -31,71</t>
+          <t>-58,09; 71,36</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-69,89; -41,01</t>
+          <t>-62,99; -33,54</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>39,53; 92,32</t>
+          <t>-60,36; -32,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-67,11; -44,77</t>
+          <t>-67,79; -39,89</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-62,08; -41,29</t>
+          <t>-85,3; -59,95</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-70,79; -51,25</t>
+          <t>-25,52; 176,13</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>63,0; 105,97</t>
+          <t>-58,39; 21,75</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-65,38; -40,98</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-62,19; -41,82</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-70,67; -48,93</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>-86,4; -69,79</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-2,13; 170,62</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>-50,38; 17,58</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-21,33</t>
+          <t>-21,28</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-16,84</t>
+          <t>-16,6</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-20,91</t>
+          <t>-20,86</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>60,91</t>
+          <t>-22,18</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-20,34</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-14,11</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-17,88</t>
+          <t>-19,94</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>54,24</t>
+          <t>-14,15</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-20,82</t>
+          <t>-17,79</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>-15,46</t>
+          <t>-22,98</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>-19,36</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>57,54</t>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>-20,59</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>-15,35</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>-19,29</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-22,6</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>1,53</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>-2,12</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-24,75; -17,95</t>
+          <t>-24,62; -17,97</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-20,6; -13,31</t>
+          <t>-20,09; -12,93</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-24,23; -17,25</t>
+          <t>-24,0; -17,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>57,3; 64,02</t>
+          <t>-25,5; -19,03</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-23,27; -17,31</t>
+          <t>-1,44; 3,96</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-17,26; -10,99</t>
+          <t>-3,18; 2,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-20,68; -14,66</t>
+          <t>-22,92; -16,89</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>50,62; 57,26</t>
+          <t>-17,35; -11,08</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-22,99; -18,47</t>
+          <t>-21,18; -15,07</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-17,71; -13,08</t>
+          <t>-25,78; -19,8</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-21,7; -17,18</t>
+          <t>-0,88; 4,3</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>55,19; 59,94</t>
+          <t>-7,03; -0,85</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; -18,13</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-17,65; -12,85</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-21,63; -17,05</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-25,07; -20,38</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 3,49</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 0,11</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-71,75%</t>
+          <t>-71,59%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-56,65%</t>
+          <t>-55,83%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-70,34%</t>
+          <t>-70,17%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>204,89%</t>
+          <t>-74,63%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-64,32%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-44,62%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-56,54%</t>
+          <t>-63,04%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>171,5%</t>
+          <t>-44,74%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-67,82%</t>
+          <t>-56,25%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>-50,35%</t>
+          <t>-72,67%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>-63,06%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>187,43%</t>
+          <t>-27,16%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>-67,07%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>-50,01%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>-62,82%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-73,6%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>18,85%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>-18,03%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-77,69; -62,88</t>
+          <t>-77,66; -62,89</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-64,36; -47,7</t>
+          <t>-63,8; -46,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-76,55; -63,48</t>
+          <t>-75,91; -62,39</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>177,43; 235,77</t>
+          <t>-80,56; -66,72</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-70,27; -57,34</t>
+          <t>-16,23; 60,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-51,9; -36,7</t>
+          <t>-30,51; 27,98</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-62,24; -48,42</t>
+          <t>-69,05; -55,4</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>151,15; 193,28</t>
+          <t>-52,03; -36,88</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-72,39; -62,61</t>
+          <t>-63,0; -49,01</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-55,46; -44,49</t>
+          <t>-77,89; -66,08</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-67,71; -58,4</t>
+          <t>-9,31; 58,5</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>170,74; 206,04</t>
+          <t>-44,77; -7,16</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-71,38; -60,87</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-55,66; -43,33</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-67,24; -57,47</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-77,77; -67,77</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-3,02; 48,51</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-31,55; 1,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
